--- a/data/trans_orig/P36BPD04_R2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_R2_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>76949</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>52823</v>
+        <v>52995</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>106824</v>
+        <v>107306</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1886960951551699</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1295339881997218</v>
+        <v>0.1299551977568398</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2619572365629384</v>
+        <v>0.2631372778656668</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -762,19 +762,19 @@
         <v>61948</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43684</v>
+        <v>42704</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>87393</v>
+        <v>86899</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.170885770419988</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1205029686671456</v>
+        <v>0.1177999885282173</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2410748589258692</v>
+        <v>0.2397138792580464</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>58</v>
@@ -783,19 +783,19 @@
         <v>138897</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>106533</v>
+        <v>105602</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>177530</v>
+        <v>176032</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1803144077986263</v>
+        <v>0.1803144077986262</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1383002965915361</v>
+        <v>0.1370911877927084</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2304672948092454</v>
+        <v>0.2285218983486875</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>330844</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>300969</v>
+        <v>300487</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>354970</v>
+        <v>354798</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8113039048448303</v>
+        <v>0.8113039048448302</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7380427634370614</v>
+        <v>0.7368627221343331</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8704660118002784</v>
+        <v>0.8700448022431603</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>175</v>
@@ -833,19 +833,19 @@
         <v>300564</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>275119</v>
+        <v>275613</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>318828</v>
+        <v>319808</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8291142295800119</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7589251410741307</v>
+        <v>0.7602861207419537</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8794970313328541</v>
+        <v>0.8822000114717827</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>321</v>
@@ -854,19 +854,19 @@
         <v>631408</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>592775</v>
+        <v>594273</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>663772</v>
+        <v>664703</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8196855922013737</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7695327051907543</v>
+        <v>0.7714781016513116</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8616997034084638</v>
+        <v>0.8629088122072914</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>78958</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>59014</v>
+        <v>59572</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>104193</v>
+        <v>105259</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1655682266198363</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1237486371042961</v>
+        <v>0.1249179477845204</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2184847515264466</v>
+        <v>0.2207189488125111</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>65</v>
@@ -979,19 +979,19 @@
         <v>75245</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>59108</v>
+        <v>59275</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>92989</v>
+        <v>93200</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1501641785147577</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.117959550480391</v>
+        <v>0.1182944807173268</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1855767127970055</v>
+        <v>0.1859962122463787</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>110</v>
@@ -1000,19 +1000,19 @@
         <v>154203</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>126055</v>
+        <v>127257</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>185288</v>
+        <v>183749</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1576756721010241</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.128894262355444</v>
+        <v>0.1301231764247752</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1894610686833161</v>
+        <v>0.1878876099385043</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>397932</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>372697</v>
+        <v>371631</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>417876</v>
+        <v>417318</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8344317733801637</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7815152484735532</v>
+        <v>0.7792810511874891</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8762513628957039</v>
+        <v>0.8750820522154796</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>395</v>
@@ -1050,19 +1050,19 @@
         <v>425838</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>408094</v>
+        <v>407883</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>441975</v>
+        <v>441808</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8498358214852422</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8144232872029944</v>
+        <v>0.8140037877536214</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8820404495196086</v>
+        <v>0.881705519282673</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>652</v>
@@ -1071,19 +1071,19 @@
         <v>823770</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>792685</v>
+        <v>794224</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>851918</v>
+        <v>850716</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8423243278989758</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8105389313166832</v>
+        <v>0.8121123900614957</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.871105737644556</v>
+        <v>0.8698768235752248</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>116483</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>96189</v>
+        <v>95998</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>138899</v>
+        <v>140854</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.187961506916073</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1552132142496502</v>
+        <v>0.1549064339810791</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2241324692544023</v>
+        <v>0.227287597044743</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>161</v>
@@ -1196,19 +1196,19 @@
         <v>118335</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>101520</v>
+        <v>103322</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>134865</v>
+        <v>137643</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1902072420649602</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1631795294550684</v>
+        <v>0.1660760733088639</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2167769649166079</v>
+        <v>0.2212422556931287</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>258</v>
@@ -1217,19 +1217,19 @@
         <v>234819</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>210825</v>
+        <v>208959</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>264860</v>
+        <v>264625</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1890865628550287</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1697656330216674</v>
+        <v>0.1682632105556587</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.213276916613212</v>
+        <v>0.2130876416255938</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>503236</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>480820</v>
+        <v>478865</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>523530</v>
+        <v>523721</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8120384930839271</v>
+        <v>0.8120384930839268</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7758675307455977</v>
+        <v>0.7727124029552569</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8447867857503497</v>
+        <v>0.845093566018921</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>685</v>
@@ -1267,19 +1267,19 @@
         <v>503804</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>487274</v>
+        <v>484496</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>520619</v>
+        <v>518817</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8097927579350398</v>
+        <v>0.8097927579350399</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7832230350833923</v>
+        <v>0.7787577443068713</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8368204705449316</v>
+        <v>0.833923926691136</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1133</v>
@@ -1288,19 +1288,19 @@
         <v>1007039</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>976998</v>
+        <v>977233</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1031033</v>
+        <v>1032899</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8109134371449712</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7867230833867878</v>
+        <v>0.7869123583744062</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8302343669783324</v>
+        <v>0.8317367894443412</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>154388</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>132185</v>
+        <v>133087</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>181123</v>
+        <v>178586</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2203598182540416</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1886689196698972</v>
+        <v>0.189956444712975</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2585186196607145</v>
+        <v>0.2548978753932526</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>234</v>
@@ -1413,19 +1413,19 @@
         <v>150294</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>134567</v>
+        <v>132631</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>166982</v>
+        <v>167785</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2042209760098648</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1828521620050798</v>
+        <v>0.1802208602078722</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2268974652055108</v>
+        <v>0.2279880584582462</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>376</v>
@@ -1434,19 +1434,19 @@
         <v>304681</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>276395</v>
+        <v>277883</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>331373</v>
+        <v>335810</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.212092006021769</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1924017698618261</v>
+        <v>0.1934370022801273</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2306724479201113</v>
+        <v>0.2337607452654061</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>546229</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>519494</v>
+        <v>522031</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>568432</v>
+        <v>567530</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7796401817459585</v>
+        <v>0.7796401817459584</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7414813803392853</v>
+        <v>0.7451021246067476</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8113310803301028</v>
+        <v>0.8100435552870251</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>905</v>
@@ -1484,19 +1484,19 @@
         <v>585642</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>568954</v>
+        <v>568151</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>601369</v>
+        <v>603305</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7957790239901351</v>
+        <v>0.7957790239901352</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7731025347944891</v>
+        <v>0.772011941541754</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8171478379949203</v>
+        <v>0.8197791397921278</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1428</v>
@@ -1505,19 +1505,19 @@
         <v>1131872</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1105180</v>
+        <v>1100743</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1160158</v>
+        <v>1158670</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.787907993978231</v>
+        <v>0.7879079939782309</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7693275520798887</v>
+        <v>0.766239254734594</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8075982301381739</v>
+        <v>0.8065629977198727</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>121977</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>104153</v>
+        <v>104431</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>145003</v>
+        <v>140632</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2005322189107067</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.171229067395888</v>
+        <v>0.1716869329246598</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2383872556490814</v>
+        <v>0.2312024936899233</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>211</v>
@@ -1630,19 +1630,19 @@
         <v>130588</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>115392</v>
+        <v>116914</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>147013</v>
+        <v>146271</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2146716095983602</v>
+        <v>0.2146716095983603</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1896912152909951</v>
+        <v>0.1921930396615726</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2416718993905065</v>
+        <v>0.2404524699025316</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>334</v>
@@ -1651,19 +1651,19 @@
         <v>252565</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>227661</v>
+        <v>229187</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>277358</v>
+        <v>281270</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2076022152347574</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1871319488835569</v>
+        <v>0.1883860434480309</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2279817604333683</v>
+        <v>0.231197319668133</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>486288</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>463262</v>
+        <v>467633</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>504112</v>
+        <v>503834</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7994677810892934</v>
+        <v>0.7994677810892932</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7616127443509189</v>
+        <v>0.7687975063100766</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8287709326041119</v>
+        <v>0.8283130670753399</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>790</v>
@@ -1701,19 +1701,19 @@
         <v>477728</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>461303</v>
+        <v>462045</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>492924</v>
+        <v>491402</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7853283904016395</v>
+        <v>0.7853283904016398</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7583281006094931</v>
+        <v>0.7595475300974683</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8103087847090048</v>
+        <v>0.8078069603384274</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1329</v>
@@ -1722,19 +1722,19 @@
         <v>964016</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>939223</v>
+        <v>935311</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>988920</v>
+        <v>987394</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7923977847652426</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7720182395666315</v>
+        <v>0.7688026803318669</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8128680511164429</v>
+        <v>0.811613956551969</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>105065</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>90245</v>
+        <v>88889</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>119864</v>
+        <v>119065</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2580951434129579</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2216894026350977</v>
+        <v>0.2183577082942583</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2944482362211291</v>
+        <v>0.2924847241708234</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>253</v>
@@ -1847,19 +1847,19 @@
         <v>133317</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>120214</v>
+        <v>119530</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>149467</v>
+        <v>148168</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3047367330133471</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2747858489688788</v>
+        <v>0.2732233566614492</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3416518545893261</v>
+        <v>0.3386831789991679</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>398</v>
@@ -1868,19 +1868,19 @@
         <v>238382</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>216102</v>
+        <v>218791</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>259057</v>
+        <v>259970</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2822554357115197</v>
+        <v>0.2822554357115198</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2558747904465049</v>
+        <v>0.2590588223242778</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3067350583963806</v>
+        <v>0.3078159722222129</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>302015</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>287216</v>
+        <v>288015</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>316835</v>
+        <v>318191</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7419048565870421</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7055517637788705</v>
+        <v>0.7075152758291766</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7783105973649023</v>
+        <v>0.7816422917057415</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>571</v>
@@ -1918,19 +1918,19 @@
         <v>304165</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>288015</v>
+        <v>289314</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>317268</v>
+        <v>317952</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6952632669866529</v>
+        <v>0.6952632669866531</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6583481454106737</v>
+        <v>0.661316821000832</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7252141510311213</v>
+        <v>0.7267766433385511</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>996</v>
@@ -1939,19 +1939,19 @@
         <v>606180</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>585505</v>
+        <v>584592</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>628460</v>
+        <v>625771</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7177445642884801</v>
+        <v>0.7177445642884802</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6932649416036193</v>
+        <v>0.6921840277777874</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7441252095534951</v>
+        <v>0.7409411776757221</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>73903</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>62073</v>
+        <v>61969</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>88029</v>
+        <v>88065</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2382430853367694</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2001075279254705</v>
+        <v>0.1997714937887171</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2837838557751256</v>
+        <v>0.2838990971212193</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>194</v>
@@ -2064,19 +2064,19 @@
         <v>102549</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>89527</v>
+        <v>90124</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>117942</v>
+        <v>116665</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2209118493497459</v>
+        <v>0.2209118493497458</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1928596803971659</v>
+        <v>0.1941455950036417</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2540711509079596</v>
+        <v>0.2513205850332287</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>298</v>
@@ -2085,19 +2085,19 @@
         <v>176452</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>157082</v>
+        <v>159239</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>193960</v>
+        <v>194611</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2278540870561645</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.202841906820133</v>
+        <v>0.2056265662168887</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2504629180316769</v>
+        <v>0.2513028066344387</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>236295</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>222169</v>
+        <v>222133</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>248125</v>
+        <v>248229</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7617569146632304</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7162161442248741</v>
+        <v>0.7161009028787807</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7998924720745294</v>
+        <v>0.8002285062112828</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>686</v>
@@ -2135,19 +2135,19 @@
         <v>361660</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>346267</v>
+        <v>347544</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>374682</v>
+        <v>374085</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7790881506502543</v>
+        <v>0.7790881506502542</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7459288490920404</v>
+        <v>0.7486794149667715</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8071403196028344</v>
+        <v>0.8058544049963586</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1040</v>
@@ -2156,19 +2156,19 @@
         <v>597955</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>580447</v>
+        <v>579796</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>617325</v>
+        <v>615168</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7721459129438354</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.749537081968323</v>
+        <v>0.748697193365561</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.797158093179867</v>
+        <v>0.7943734337831113</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>727723</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>671318</v>
+        <v>675755</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>783417</v>
+        <v>785348</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2061208803196773</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.190144816986225</v>
+        <v>0.1914016541955485</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2218957362318749</v>
+        <v>0.222442671753713</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1150</v>
@@ -2281,19 +2281,19 @@
         <v>772276</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>731846</v>
+        <v>729781</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>817742</v>
+        <v>811745</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2069514720419991</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1961171684420914</v>
+        <v>0.1955637911400777</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2191352933495407</v>
+        <v>0.2175282051608514</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1832</v>
@@ -2302,19 +2302,19 @@
         <v>1499999</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1433433</v>
+        <v>1438813</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1575715</v>
+        <v>1580721</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.206547677091408</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1973816821303135</v>
+        <v>0.198122545278084</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2169737425069609</v>
+        <v>0.2176630712269832</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>2802839</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2747145</v>
+        <v>2745214</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2859244</v>
+        <v>2854807</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7938791196803228</v>
+        <v>0.7938791196803227</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7781042637681251</v>
+        <v>0.777557328246287</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8098551830137741</v>
+        <v>0.8085983458044518</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4207</v>
@@ -2352,19 +2352,19 @@
         <v>2959402</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2913936</v>
+        <v>2919933</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2999832</v>
+        <v>3001897</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7930485279580008</v>
+        <v>0.793048527958001</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7808647066504594</v>
+        <v>0.7824717948391485</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8038828315579082</v>
+        <v>0.8044362088599222</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6899</v>
@@ -2373,19 +2373,19 @@
         <v>5762241</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5686525</v>
+        <v>5681519</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5828807</v>
+        <v>5823427</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7934523229085921</v>
+        <v>0.793452322908592</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7830262574930388</v>
+        <v>0.7823369287730169</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8026183178696865</v>
+        <v>0.8018774547219158</v>
       </c>
     </row>
     <row r="27">
